--- a/excelDriver.xlsx
+++ b/excelDriver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\autoapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E04141-246F-4F1B-8A1A-22580AD83D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62440F1D-FC98-45F9-A14A-01CCE5DAB489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{E27E4A79-10ED-4181-8D46-F94E1E53E0DE}"/>
   </bookViews>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,6 +72,22 @@
   </si>
   <si>
     <t>登录接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/am5/rest/authn/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "userId": "amadmin",
+  "password": "password1",
+  "realmId": "SystemRealm"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +157,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +480,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,10 +494,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -491,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -505,36 +520,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -550,8 +565,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1019BE25-A147-4F81-8E51-3979DCF567FD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E4D404B0-3426-41FD-A8A3-2E36EC326C97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>